--- a/Toy-example/Abnormalities_Features.xlsx
+++ b/Toy-example/Abnormalities_Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOLZARDM\.spyder-py3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp zbook g5\Documents\GitHub\paper-TDA-embankment-monitoring\Toy-example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C12D41-185D-41EC-B421-FA8ED11E5593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEB554A-0F28-45CD-9129-738DAC134C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +235,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,30 +577,31 @@
   <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="C3" sqref="B3:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.109375" style="1"/>
+    <col min="7" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>-50</v>
       </c>
@@ -700,7 +704,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>-40</v>
       </c>
@@ -753,7 +757,7 @@
         <v>289.27207466694898</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>-30</v>
       </c>
@@ -806,7 +810,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>-20</v>
       </c>
@@ -859,7 +863,7 @@
         <v>299.71983821977398</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>-15</v>
       </c>
@@ -912,7 +916,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>-10</v>
       </c>
@@ -965,7 +969,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>-7</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>-4</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>311.21458636275702</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>-2</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>298.02962204643001</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>0</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>304.14791541108701</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>290.90833687382298</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>294.14966532685901</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>7</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>307.17947602683302</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>291.82410361781302</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>15</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>298.60771100033202</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>20</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>294.88306090238001</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>30</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>298.82287439698399</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>40</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>295.09605379222501</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>50</v>
       </c>
